--- a/treasuries/2s10s_data.xlsx
+++ b/treasuries/2s10s_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12381"/>
+  <dimension ref="A1:B12385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99489,6 +99489,38 @@
         <v>-0.39</v>
       </c>
     </row>
+    <row r="12382">
+      <c r="A12382" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B12382" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="12383">
+      <c r="A12383" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B12383" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="12384">
+      <c r="A12384" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B12384" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="12385">
+      <c r="A12385" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B12385" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
